--- a/biology/Zoologie/Erebiola_butleri/Erebiola_butleri.xlsx
+++ b/biology/Zoologie/Erebiola_butleri/Erebiola_butleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebiola butleri est une espèce de lépidoptères (papillons) endémique de Nouvelle-Zélande. Elle est l'unique représentante du genre monotypique Erebiola, dans la famille des Nymphalidae et la sous-famille des Satyrinae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erebiola butleri se nomme en anglais Butler's Ringlet, Butler's Black Mountain Ringlet ou encore Small Black Mountain Ringlet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebiola butleri se nomme en anglais Butler's Ringlet, Butler's Black Mountain Ringlet ou encore Small Black Mountain Ringlet.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago d'Erebiola butleri est un papillon de taille moyenne. Le dessus des ailes est brun très foncé, avec deux ocelles noir pupillés de blanc à l'apex des ailes antérieures, et trois aux ailes postérieures. Le revers des ailes postérieures est brun-ocre orné de taches blanches plus ou moins en losanges.
-La chenille est de couleur marron-jaune[1].
+La chenille est de couleur marron-jaune.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante hôte de la chenille pourrait être Chionochloa australis[1].
-L'imago vole de janvier à mi-avril[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de la chenille pourrait être Chionochloa australis.
+L'imago vole de janvier à mi-avril.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Distribution et biotopes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erebiola butleri est endémique de Nouvelle-Zélande, plus précisément de l'île du Sud[2]. On le trouve en montagne, entre 900 et 1300 mètres d'altitude[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebiola butleri est endémique de Nouvelle-Zélande, plus précisément de l'île du Sud. On le trouve en montagne, entre 900 et 1300 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -637,9 +657,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Erebiola et son unique espèce Erebiola butleri ont été décrits par l'entomologiste néo-zélandais Richard William Fereday (en) en 1879[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Erebiola et son unique espèce Erebiola butleri ont été décrits par l'entomologiste néo-zélandais Richard William Fereday (en) en 1879.
 </t>
         </is>
       </c>
